--- a/others/PoECurrencyTracker/Tasks.xlsx
+++ b/others/PoECurrencyTracker/Tasks.xlsx
@@ -161,7 +161,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +171,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -187,13 +193,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -523,7 +533,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +600,7 @@
       </c>
       <c r="H3">
         <f>SUMIFS(Tabela1[Czas '[h']], Tabela1[Status], "&lt;&gt;done")</f>
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="I3" t="s">
         <v>40</v>
@@ -683,16 +693,16 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -751,7 +761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -762,15 +772,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
+      <c r="C18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
